--- a/apps/algorithms/API/DATA/Профессии_ОКСО_ ЛЦТ_Профилум.xlsx
+++ b/apps/algorithms/API/DATA/Профессии_ОКСО_ ЛЦТ_Профилум.xlsx
@@ -930,7 +930,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1115,10 +1115,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1436,7 +1436,7 @@
     <col min="6" max="6" style="16" width="166.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="282.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="315.75">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="256.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="273.75">
       <c r="A3" s="9">
         <v>2</v>
       </c>
